--- a/docu/LossFunctionExperimentSet/TestExperiment4.xlsx
+++ b/docu/LossFunctionExperimentSet/TestExperiment4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA448F9-E1AB-4132-B9EF-6D8CA4EFE236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9828BF72-43ED-4F7F-8CEA-93BFCD35E0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="2205" windowWidth="17070" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
   <si>
     <t>Experiment conditions</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>0,0109</t>
+  </si>
+  <si>
+    <t>Dead volume</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,6 +850,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1129,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1205,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
